--- a/DEMOCRACY INDEX 2016.xlsx
+++ b/DEMOCRACY INDEX 2016.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
     <t>Norway</t>
   </si>
@@ -531,6 +531,9 @@
   </si>
   <si>
     <t>Central Afr. Rep.</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
   </si>
 </sst>
 </file>
@@ -850,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="B164" sqref="B164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2651,7 +2654,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="B164">
         <v>1.7</v>
